--- a/infrom_note.xlsx
+++ b/infrom_note.xlsx
@@ -16,13 +16,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -67,10 +73,10 @@
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
@@ -78,17 +84,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +494,7 @@
         <v/>
       </c>
       <c r="E1" s="4" t="n">
-        <v>25569.37553211805</v>
+        <v>25569.3752959375</v>
       </c>
     </row>
     <row r="2" ht="85.5" customFormat="1" customHeight="1" s="5">
@@ -502,12 +508,12 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
+      <c r="B2" s="6" t="n"/>
+      <c r="C2" s="6" t="n"/>
       <c r="D2" s="7" t="n"/>
       <c r="E2" s="7" t="n"/>
     </row>
-    <row r="3" ht="85.5" customFormat="1" customHeight="1" s="5">
+    <row r="3" ht="105" customFormat="1" customHeight="1" s="5">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>2&gt; b조
@@ -518,12 +524,12 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B3" s="8" t="n"/>
-      <c r="C3" s="8" t="n"/>
+      <c r="B3" s="6" t="n"/>
+      <c r="C3" s="6" t="n"/>
       <c r="D3" s="7" t="n"/>
       <c r="E3" s="7" t="n"/>
     </row>
-    <row r="4" ht="85.5" customFormat="1" customHeight="1" s="5">
+    <row r="4" ht="105" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>2&gt; b조
@@ -534,12 +540,12 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
       <c r="D4" s="7" t="n"/>
       <c r="E4" s="7" t="n"/>
     </row>
-    <row r="5" ht="210" customFormat="1" customHeight="1" s="5">
+    <row r="5" ht="105" customFormat="1" customHeight="1" s="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>2&gt; b조
@@ -550,12 +556,12 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B5" s="8" t="n"/>
-      <c r="C5" s="8" t="n"/>
+      <c r="B5" s="6" t="n"/>
+      <c r="C5" s="6" t="n"/>
       <c r="D5" s="7" t="n"/>
       <c r="E5" s="7" t="n"/>
     </row>
-    <row r="6" ht="210" customFormat="1" customHeight="1" s="5">
+    <row r="6" ht="105" customFormat="1" customHeight="1" s="5">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>2&gt; b조
@@ -566,8 +572,8 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B6" s="8" t="n"/>
-      <c r="C6" s="8" t="n"/>
+      <c r="B6" s="6" t="n"/>
+      <c r="C6" s="6" t="n"/>
       <c r="D6" s="7" t="n"/>
       <c r="E6" s="7" t="n"/>
     </row>
@@ -582,8 +588,8 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B7" s="8" t="n"/>
-      <c r="C7" s="8" t="n"/>
+      <c r="B7" s="6" t="n"/>
+      <c r="C7" s="6" t="n"/>
       <c r="D7" s="7" t="n"/>
       <c r="E7" s="7" t="n"/>
     </row>
@@ -598,8 +604,8 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B8" s="8" t="n"/>
-      <c r="C8" s="8" t="n"/>
+      <c r="B8" s="6" t="n"/>
+      <c r="C8" s="6" t="n"/>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
     </row>
@@ -614,8 +620,8 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B9" s="8" t="n"/>
-      <c r="C9" s="8" t="n"/>
+      <c r="B9" s="6" t="n"/>
+      <c r="C9" s="6" t="n"/>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
     </row>
@@ -630,8 +636,8 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
+      <c r="B10" s="6" t="n"/>
+      <c r="C10" s="6" t="n"/>
       <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
     </row>
@@ -646,8 +652,8 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B11" s="8" t="n"/>
-      <c r="C11" s="8" t="n"/>
+      <c r="B11" s="6" t="n"/>
+      <c r="C11" s="6" t="n"/>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
     </row>

--- a/infrom_note.xlsx
+++ b/infrom_note.xlsx
@@ -9,16 +9,16 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
@@ -34,6 +34,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -64,14 +78,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -82,7 +93,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
@@ -90,15 +101,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -177,10 +186,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -218,71 +227,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -310,7 +319,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -333,11 +342,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -346,13 +355,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -362,7 +371,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -371,7 +380,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -380,7 +389,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -388,10 +397,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -463,20 +472,20 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col width="53" bestFit="1" customWidth="1" style="8" min="1" max="1"/>
-    <col width="8" bestFit="1" customWidth="1" style="9" min="2" max="2"/>
-    <col width="8" bestFit="1" customWidth="1" style="9" min="3" max="3"/>
-    <col width="10" bestFit="1" customWidth="1" style="10" min="4" max="4"/>
-    <col width="28" bestFit="1" customWidth="1" style="10" min="5" max="5"/>
+    <col width="53" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
+    <col width="8" bestFit="1" customWidth="1" style="8" min="2" max="3"/>
+    <col width="8" customWidth="1" style="8" min="3" max="3"/>
+    <col width="10" bestFit="1" customWidth="1" style="9" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" style="9" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="210" customHeight="1">
+    <row r="1" ht="210" customHeight="1" s="8">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>2&gt; b조
@@ -487,14 +496,12 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <f>TODAY()</f>
         <v/>
       </c>
-      <c r="E1" s="4" t="n">
-        <v>25569.3752959375</v>
+      <c r="E1" s="3" t="n">
+        <v>45975</v>
       </c>
     </row>
     <row r="2" ht="85.5" customFormat="1" customHeight="1" s="5">
@@ -508,10 +515,10 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B2" s="6" t="n"/>
-      <c r="C2" s="6" t="n"/>
-      <c r="D2" s="7" t="n"/>
-      <c r="E2" s="7" t="n"/>
+      <c r="B2" s="5" t="n"/>
+      <c r="C2" s="5" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="6" t="n"/>
     </row>
     <row r="3" ht="105" customFormat="1" customHeight="1" s="5">
       <c r="A3" s="1" t="inlineStr">
@@ -524,10 +531,10 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n"/>
-      <c r="C3" s="6" t="n"/>
-      <c r="D3" s="7" t="n"/>
-      <c r="E3" s="7" t="n"/>
+      <c r="B3" s="5" t="n"/>
+      <c r="C3" s="5" t="n"/>
+      <c r="D3" s="6" t="n"/>
+      <c r="E3" s="6" t="n"/>
     </row>
     <row r="4" ht="105" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="1" t="inlineStr">
@@ -540,10 +547,10 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="7" t="n"/>
-      <c r="E4" s="7" t="n"/>
+      <c r="B4" s="5" t="n"/>
+      <c r="C4" s="5" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
     </row>
     <row r="5" ht="105" customFormat="1" customHeight="1" s="5">
       <c r="A5" s="1" t="inlineStr">
@@ -556,10 +563,10 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n"/>
-      <c r="C5" s="6" t="n"/>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="7" t="n"/>
+      <c r="B5" s="5" t="n"/>
+      <c r="C5" s="5" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="6" t="n"/>
     </row>
     <row r="6" ht="105" customFormat="1" customHeight="1" s="5">
       <c r="A6" s="1" t="inlineStr">
@@ -572,10 +579,10 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="7" t="n"/>
-      <c r="E6" s="7" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="5" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="6" t="n"/>
     </row>
     <row r="7" ht="210" customFormat="1" customHeight="1" s="5">
       <c r="A7" s="1" t="inlineStr">
@@ -588,10 +595,10 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n"/>
-      <c r="C7" s="6" t="n"/>
-      <c r="D7" s="7" t="n"/>
-      <c r="E7" s="7" t="n"/>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="6" t="n"/>
+      <c r="E7" s="6" t="n"/>
     </row>
     <row r="8" ht="210" customFormat="1" customHeight="1" s="5">
       <c r="A8" s="1" t="inlineStr">
@@ -604,10 +611,10 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="7" t="n"/>
-      <c r="E8" s="7" t="n"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="6" t="n"/>
+      <c r="E8" s="6" t="n"/>
     </row>
     <row r="9" ht="210" customFormat="1" customHeight="1" s="5">
       <c r="A9" s="1" t="inlineStr">
@@ -620,10 +627,10 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B9" s="6" t="n"/>
-      <c r="C9" s="6" t="n"/>
-      <c r="D9" s="7" t="n"/>
-      <c r="E9" s="7" t="n"/>
+      <c r="B9" s="5" t="n"/>
+      <c r="C9" s="5" t="n"/>
+      <c r="D9" s="6" t="n"/>
+      <c r="E9" s="6" t="n"/>
     </row>
     <row r="10" ht="210" customFormat="1" customHeight="1" s="5">
       <c r="A10" s="1" t="inlineStr">
@@ -636,10 +643,10 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B10" s="6" t="n"/>
-      <c r="C10" s="6" t="n"/>
-      <c r="D10" s="7" t="n"/>
-      <c r="E10" s="7" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="6" t="n"/>
+      <c r="E10" s="6" t="n"/>
     </row>
     <row r="11" ht="210" customFormat="1" customHeight="1" s="5">
       <c r="A11" s="1" t="inlineStr">
@@ -652,12 +659,13 @@
 &gt;asdgagdagh</t>
         </is>
       </c>
-      <c r="B11" s="6" t="n"/>
-      <c r="C11" s="6" t="n"/>
-      <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
+      <c r="B11" s="5" t="n"/>
+      <c r="C11" s="5" t="n"/>
+      <c r="D11" s="6" t="n"/>
+      <c r="E11" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>